--- a/data/210429_MESA totals calibration comparison_for Jeff and Emil.xlsx
+++ b/data/210429_MESA totals calibration comparison_for Jeff and Emil.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rag2216\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilhafeez/Google Drive/Career/Columbia/MESA/mesa_metals_calibration/mesa_metals_calibration/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0652143-66AF-1742-96C7-FC87B94D8A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="702"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Co" sheetId="1" r:id="rId1"/>
@@ -56,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -138,9 +139,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -149,7 +150,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,24 +428,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -454,7 +455,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -469,7 +470,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -484,7 +485,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0.2</v>
       </c>
@@ -498,7 +499,7 @@
         <v>0.105193666570036</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.1</v>
       </c>
@@ -512,7 +513,7 @@
         <v>7.7693098471107502E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0.05</v>
       </c>
@@ -526,7 +527,7 @@
         <v>5.1774858182089802E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.02</v>
       </c>
@@ -541,7 +542,7 @@
         <v>2.5505104461584799E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.01</v>
       </c>
@@ -556,7 +557,7 @@
         <v>9.9798863353634006E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>3.7499999999999999E-2</v>
       </c>
@@ -564,7 +565,7 @@
         <v>7.4656772858525001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -578,7 +579,7 @@
         <v>5.0948738787634004E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.2</v>
       </c>
@@ -592,7 +593,7 @@
         <v>2.5350994445240602E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.1</v>
       </c>
@@ -606,7 +607,7 @@
         <v>1.05659586700581E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.05</v>
       </c>
@@ -614,7 +615,7 @@
         <v>1.4501074504566801E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.02</v>
       </c>
@@ -629,7 +630,7 @@
         <v>6.0734195935614201E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.01</v>
       </c>
@@ -644,7 +645,7 @@
         <v>0.102842641200832</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>0.375</v>
       </c>
@@ -652,7 +653,7 @@
         <v>7.64438581662545E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -666,7 +667,7 @@
         <v>5.0679840756986297E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.2</v>
       </c>
@@ -680,7 +681,7 @@
         <v>2.4920503721276702E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.1</v>
       </c>
@@ -694,7 +695,7 @@
         <v>9.9520624098727896E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.05</v>
       </c>
@@ -708,7 +709,7 @@
         <v>7.8647880760789792E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.02</v>
       </c>
@@ -723,7 +724,7 @@
         <v>5.0007953863185897E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.01</v>
       </c>
@@ -738,7 +739,7 @@
         <v>2.7874409461662499E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C23" s="4"/>
       <c r="D23" s="3">
         <v>5.0000000000000001E-3</v>
@@ -747,7 +748,7 @@
         <v>9.9131491841775599E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -755,7 +756,7 @@
         <v>-7.8642140069909702E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.2</v>
       </c>
@@ -769,7 +770,7 @@
         <v>-4.8550915121627599E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.1</v>
       </c>
@@ -783,7 +784,7 @@
         <v>0.10523247637677299</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.05</v>
       </c>
@@ -797,7 +798,7 @@
         <v>7.8671820850982996E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.02</v>
       </c>
@@ -812,7 +813,7 @@
         <v>5.2161689165759299E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.01</v>
       </c>
@@ -827,7 +828,7 @@
         <v>2.65654727965377E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>0.05</v>
       </c>
@@ -835,7 +836,7 @@
         <v>1.0857943143125199E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -849,7 +850,7 @@
         <v>8.3470806918974107E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.2</v>
       </c>
@@ -863,7 +864,7 @@
         <v>5.3131302057384099E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.1</v>
       </c>
@@ -878,7 +879,7 @@
         <v>2.8555839879312898E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.05</v>
       </c>
@@ -893,7 +894,7 @@
         <v>1.0250968409132801E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.02</v>
       </c>
@@ -902,7 +903,7 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.01</v>
       </c>
@@ -917,7 +918,7 @@
         <v>4.7645623025755201E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>0.5</v>
       </c>
@@ -925,7 +926,7 @@
         <v>0.104902836771537</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -939,7 +940,7 @@
         <v>7.6412731626883196E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.2</v>
       </c>
@@ -953,7 +954,7 @@
         <v>5.1921926137166403E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.1</v>
       </c>
@@ -967,7 +968,7 @@
         <v>2.6304849958300201E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.05</v>
       </c>
@@ -981,7 +982,7 @@
         <v>9.9275822158100598E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.02</v>
       </c>
@@ -996,7 +997,7 @@
         <v>7.5737109012801E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.01</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>5.0490387155845704E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
       <c r="D44" s="3">
         <v>1.2500000000000001E-2</v>
@@ -1020,7 +1021,7 @@
         <v>2.4960042264358202E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>9.8526117004474507E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.2</v>
       </c>
@@ -1043,7 +1044,7 @@
         <v>8.4011504288616007E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.1</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>4.8858954087320895E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.05</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>0.10013053249446099</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.02</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>7.6012296169202395E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.01</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>4.9703175843603203E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>0.125</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>2.4723568592353199E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>0.05</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>1.00998556760698E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>3.7499999999999999E-2</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>7.4152014462618597E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>5.1055162988308299E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C55" s="4"/>
       <c r="D55" s="3">
         <v>1.2500000000000001E-2</v>
@@ -1142,7 +1143,7 @@
         <v>2.4106033357036401E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C56" s="4"/>
       <c r="D56" s="3">
         <v>5.0000000000000001E-3</v>
@@ -1161,23 +1162,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -1187,7 +1188,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1203,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1217,7 +1218,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>0.110651901196426</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.5</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>8.0985928232234605E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0.25</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>5.3454779654625799E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.1</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>2.6661391716614399E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.05</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>1.0720947453052999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>3.7499999999999999E-2</v>
       </c>
@@ -1295,7 +1296,7 @@
         <v>8.0192540160516808E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>5.3511575901173799E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>2.7054785369694601E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>9.8947388735776197E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.25</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>8.0306422248355894E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.1</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>4.2982126431320601E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.05</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>0.102523250595453</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>0.375</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>7.6250446191276106E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>5.07064518752494E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1409,7 +1410,7 @@
         <v>2.4524292661342401E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.5</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>1.00415979351666E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.25</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>7.6089366195863303E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.1</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>5.0855840729232696E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.05</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>2.49130988282717E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23" s="3">
@@ -1475,7 +1476,7 @@
         <v>1.00331761303965E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>1.26482932274702E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>-1.1506570858215201E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>0.102424238061886</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.25</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>7.6328070357258096E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.1</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>5.0359800412651798E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.05</v>
       </c>
@@ -1553,7 +1554,7 @@
         <v>2.5504269114717301E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>0.05</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>1.03297295947082E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -1575,7 +1576,7 @@
         <v>7.6478656063335504E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>5.2336667338774403E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.5</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>2.56755429748664E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.25</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>1.0046259486828899E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.1</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>2.7471147319564598E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.05</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>5.3104220210428804E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>0.5</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>0.106087114287348</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>7.8639207940249395E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>5.2691797218336403E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.5</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>2.68172664880553E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.25</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>1.03335353141858E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.1</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>7.7032480582666001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.05</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>5.0985555096021299E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>2.5409974806493599E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>1.0015564000348299E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>0.28244681215914103</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.5</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>2.5104041985597798E-6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.25</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>0.10162027836712199</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.1</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>7.6028366782026097E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.05</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>4.9822762509685398E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>0.125</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>2.4921633520226302E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>0.05</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>1.0287050523341701E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>3.7499999999999999E-2</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>7.4152263137713297E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>4.9447438985274397E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>2.4598135865875801E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1875,23 +1876,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -1901,7 +1902,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1917,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1931,7 +1932,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>5.6165166039134101E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.5</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>4.1516349768767599E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0.25</v>
       </c>
@@ -1973,7 +1974,7 @@
         <v>2.7712068706926302E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.1</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>1.3691896880115999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.05</v>
       </c>
@@ -2001,7 +2002,7 @@
         <v>6.0128674511119203E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>3.9026764161628901E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>2.8641666310499502E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>1.4730413723376399E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>9.2324767018810605E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.25</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>0.104650255650447</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.1</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>6.6738413757030598E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.05</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>5.2926904815696701E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>0.15</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>3.9559581956769903E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>2.6271222441389502E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>1.2817393751110399E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.5</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>5.9533269440862997E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.25</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>4.6224612189609401E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.1</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>3.0952363438459299E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.05</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>1.5831533801146801E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23" s="3">
@@ -2189,7 +2190,7 @@
         <v>5.5019082854132397E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>-9.6223554659202401E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -2211,7 +2212,7 @@
         <v>-3.4854969575578802E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -2225,7 +2226,7 @@
         <v>5.3024992492518297E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.25</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>3.9722799048200197E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.1</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>2.6243587076431499E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.05</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>1.3333177334605701E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>0.02</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>5.4433121213416404E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>4.0797927957917602E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -2303,7 +2304,7 @@
         <v>2.7373559973732E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.5</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>1.5049287952117699E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.25</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>8.3352769759039499E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.1</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>3.4746624591789503E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.05</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>7.3383879633248498E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>0.2</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>5.5293622335965097E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>4.0920939782733902E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>2.7599624678969498E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.5</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>1.3845020557470399E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.25</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>5.6328189340341499E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.1</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>4.1777601099533702E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.05</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>2.9628803186888299E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>1.4530408699624201E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>1.0332428579522799E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>1.9060459134173899</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>2.5</v>
       </c>
@@ -2489,7 +2490,7 @@
         <v>7.5766199631067998E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1.25</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>5.2848357551288097E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.5</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>3.9623679152896697E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.25</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>2.6422472943619602E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>0.05</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>1.28379214631337E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>0.02</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>5.0675602849123503E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>3.93113656507938E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>0.01</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>2.8078233842207798E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>1.2634201638823299E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3">
         <v>2E-3</v>
       </c>
@@ -2589,23 +2590,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -2615,7 +2616,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2630,7 +2631,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2645,7 +2646,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0.2</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>4.8468559569473497E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.1</v>
       </c>
@@ -2673,7 +2674,7 @@
         <v>3.5945121311974602E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0.05</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>2.35970953530899E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.02</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>1.17385945095928E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.01</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>4.5423688954637897E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2723,7 +2724,7 @@
         <v>3.61585751115446E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>2.2774074160716098E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.2</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>1.17100199944909E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.1</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>4.9490038995171105E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.05</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>1.8451039956923501E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.02</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>2.1772755707282501E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.01</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>4.6274551654003702E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>0.15</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>3.3824195701755003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>2.2772832253864599E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.2</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>1.13172280327321E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.1</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>4.3565776889418397E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.05</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>3.4498849106959699E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.02</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>2.2448377845088602E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.01</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>1.16043353610646E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23" s="3">
@@ -2903,7 +2904,7 @@
         <v>4.8001182105192601E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>4.1944793974506702E-7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.2</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>-3.8355233956661603E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.1</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>4.4937131896818701E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.05</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>3.3371380425390097E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.02</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>2.2584726922155799E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.01</v>
       </c>
@@ -2981,7 +2982,7 @@
         <v>1.1120958956565201E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>0.02</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>4.6242348374112598E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>3.4504520466994999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.2</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>2.1872305027967999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.1</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>1.23214265075896E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.05</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>4.2851258385394499E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.02</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>6.2786635563721396E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.01</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>1.3365324431797801E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>0.2</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>4.5959781222529E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>3.4048411258159099E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.2</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>2.2653287376546299E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.1</v>
       </c>
@@ -3117,7 +3118,7 @@
         <v>1.1620243486781701E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.05</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>4.5174119471506E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.02</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>3.2997268221139002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.01</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>2.2605970385253401E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>1.13612704695662E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>4.4768240836810498E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.2</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>6.6467439841548598E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.1</v>
       </c>
@@ -3203,7 +3204,7 @@
         <v>1.2383523582702499E-6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.05</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>4.33383187515844E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.02</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>3.27759890657736E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.01</v>
       </c>
@@ -3245,7 +3246,7 @@
         <v>2.14399844764879E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>0.05</v>
       </c>
@@ -3253,7 +3254,7 @@
         <v>1.0668488838342099E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>0.02</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>4.3543642018866397E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>3.2163253871987699E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>0.01</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>2.1037027945943398E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>1.0595810387189499E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3">
         <v>2E-3</v>
       </c>
@@ -3303,23 +3304,23 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -3329,7 +3330,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3344,7 +3345,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -3359,7 +3360,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0.2</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>9.23830936550947E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.1</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>6.83823856437039E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0.05</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>4.5519808724689401E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.02</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>2.2205908229853799E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.01</v>
       </c>
@@ -3429,7 +3430,7 @@
         <v>9.0257654143114097E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>3.7499999999999999E-2</v>
       </c>
@@ -3437,7 +3438,7 @@
         <v>6.4978340478278702E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -3451,7 +3452,7 @@
         <v>4.4644466652485303E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.2</v>
       </c>
@@ -3465,7 +3466,7 @@
         <v>2.2487452449209901E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.1</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>9.51798288471592E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.05</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>1.3096789379409E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.02</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>4.3867274473059097E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.01</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>9.4726638576880406E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>0.375</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>7.0114811780890796E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>4.6453018309582803E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.2</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>2.2813276610413699E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.1</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>9.9698363402965107E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.05</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>7.51085498536399E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.02</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>4.8680008318524003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.01</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>2.9836503690073798E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23" s="3">
@@ -3617,7 +3618,7 @@
         <v>9.7010899002232E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>-8.3838249068022902E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.2</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>3.1830084912077002E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.1</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>0.101589160470633</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.05</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>7.4522923416334305E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.02</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>4.99631231904318E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.01</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>2.51344155784393E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>0.05</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>1.04913716353304E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -3717,7 +3718,7 @@
         <v>7.5122906867349497E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.2</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>5.2177230410680999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.1</v>
       </c>
@@ -3745,7 +3746,7 @@
         <v>2.7335015248162401E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.05</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>1.21329903802026E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.02</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>5.3109311002934503E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.01</v>
       </c>
@@ -3781,7 +3782,7 @@
         <v>6.3181829915697504E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>0.5</v>
       </c>
@@ -3789,7 +3790,7 @@
         <v>9.4927913097266295E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>6.9826751761758898E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.2</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>4.6955032209935701E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.1</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>2.36061038319096E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.05</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>8.8388694145259093E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.02</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>6.8147262378032702E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.01</v>
       </c>
@@ -3873,7 +3874,7 @@
         <v>4.4210525535156803E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>2.4417192788213E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>7.5488105890908898E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.2</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>4.9924830175695399E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.1</v>
       </c>
@@ -3917,7 +3918,7 @@
         <v>7.0574075503895698E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.05</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>9.3292308402124102E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.02</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>6.9795857285340407E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.01</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>4.5828771096232401E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>0.125</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>2.2566658656968899E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>0.05</v>
       </c>
@@ -3975,7 +3976,7 @@
         <v>9.0143217321033003E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>3.7499999999999999E-2</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>6.8438742165111604E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>4.3170535828708301E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>2.2846991613237502E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -4017,23 +4018,23 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -4043,7 +4044,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4058,7 +4059,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -4073,7 +4074,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>5</v>
       </c>
@@ -4087,7 +4088,7 @@
         <v>2.5720901483037399E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2.5</v>
       </c>
@@ -4101,7 +4102,7 @@
         <v>1.8922418267905201E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1.25</v>
       </c>
@@ -4115,7 +4116,7 @@
         <v>1.2674425312611501E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.5</v>
       </c>
@@ -4129,7 +4130,7 @@
         <v>6.3462934685151601E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.25</v>
       </c>
@@ -4143,7 +4144,7 @@
         <v>2.5359332243830501E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>0.75</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>1.8958963954521901E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -4165,7 +4166,7 @@
         <v>1.35961539708742E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -4179,7 +4180,7 @@
         <v>6.6436414700148702E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2.5</v>
       </c>
@@ -4193,7 +4194,7 @@
         <v>2.68381867586235E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1.25</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>4.41723203660208E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.5</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>2.39484531104298E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.25</v>
       </c>
@@ -4229,7 +4230,7 @@
         <v>2.32467686047549E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>7.5</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>1.7788713046694299E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -4251,7 +4252,7 @@
         <v>1.2064315086757401E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>5</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>5.87013174712265E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2.5</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>2.4036943796827501E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1.25</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>1.85909849302223E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.5</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>1.23847192951476E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.25</v>
       </c>
@@ -4321,7 +4322,7 @@
         <v>6.4445026294762404E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23" s="3">
@@ -4331,7 +4332,7 @@
         <v>2.6814421244050399E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -4339,7 +4340,7 @@
         <v>-4.2028870659450499E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -4353,7 +4354,7 @@
         <v>-5.2695312240824202E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>2.5</v>
       </c>
@@ -4367,7 +4368,7 @@
         <v>2.65916652767684E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1.25</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>2.01652012332799E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.5</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>1.33775382696322E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.25</v>
       </c>
@@ -4409,7 +4410,7 @@
         <v>6.7009398154604096E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>1</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>2.9165856217091201E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>2.1101711311699001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -4445,7 +4446,7 @@
         <v>1.3592302328350001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>2.5</v>
       </c>
@@ -4459,7 +4460,7 @@
         <v>7.4144019028092199E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1.25</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>3.3210677702993902E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.5</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>1.81672142963095E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.25</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>2.5093160126864802E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>10</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>2.6293772406130098E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>1.9533930827414E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -4531,7 +4532,7 @@
         <v>1.3187310918491501E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>2.5</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>6.6932645375742802E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1.25</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>2.6319532163855E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.5</v>
       </c>
@@ -4573,7 +4574,7 @@
         <v>1.97030874621056E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.25</v>
       </c>
@@ -4587,7 +4588,7 @@
         <v>1.2959751392467901E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3">
         <v>0.25</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>6.3415628991837097E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>2.7783237616954402E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>1.43305950464949E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>2.5</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>2.3440088004461599E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1.25</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>2.5385348657240001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.5</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>1.8941164756545899E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.25</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>1.24696472279083E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>2.5</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>6.37763579256969E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>1</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>2.5399284212515899E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>0.75</v>
       </c>
@@ -4697,7 +4698,7 @@
         <v>1.9156027552763399E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>0.5</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>1.2736795695021501E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3">
         <v>0.25</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>6.4793936005851896E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3">
         <v>0.1</v>
       </c>
@@ -4731,23 +4732,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A27" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -4757,7 +4758,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4772,7 +4773,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -4787,7 +4788,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>5</v>
       </c>
@@ -4801,7 +4802,7 @@
         <v>2.3724571718123401E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2.5</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>1.7330176261375001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1.25</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>1.1480590628814E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.5</v>
       </c>
@@ -4843,7 +4844,7 @@
         <v>5.8200282320062099E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.25</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>2.34619871632725E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>0.22500000000000001</v>
       </c>
@@ -4865,7 +4866,7 @@
         <v>1.7581111206838901E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>1.1757816150923599E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -4893,7 +4894,7 @@
         <v>5.8862283058752705E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2.5</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>2.5987876568611901E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1.25</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>1.77390092784348E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.5</v>
       </c>
@@ -4929,7 +4930,7 @@
         <v>1.83826472443282E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.25</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>2.5455562630661899E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>2.25</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>1.9311860321897099E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>1.2848002136848301E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>5</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>6.4499105962360801E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2.5</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>2.5534349291395902E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1.25</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>1.9454579171450099E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.5</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>1.2870133693192599E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.25</v>
       </c>
@@ -5035,7 +5036,7 @@
         <v>6.8603358879517002E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23" s="3">
@@ -5045,7 +5046,7 @@
         <v>2.7255423362156599E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>-5.1981368027512602E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -5067,7 +5068,7 @@
         <v>-1.16419608201674E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>2.5</v>
       </c>
@@ -5081,7 +5082,7 @@
         <v>2.33827649826704E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1.25</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>1.8157111021830701E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.5</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>1.1736538901393799E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.25</v>
       </c>
@@ -5123,7 +5124,7 @@
         <v>5.9850070705197399E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>0.3</v>
       </c>
@@ -5131,7 +5132,7 @@
         <v>2.4677213720889599E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -5145,7 +5146,7 @@
         <v>1.8372618857525E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>1.20787761822271E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>2.5</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>6.4539516980168302E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1.25</v>
       </c>
@@ -5187,7 +5188,7 @@
         <v>2.4365596208675701E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.5</v>
       </c>
@@ -5195,7 +5196,7 @@
         <v>7.0992448142512404E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.25</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>2.5780263010860199E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>3</v>
       </c>
@@ -5217,7 +5218,7 @@
         <v>2.4004494407723401E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>1.7840840006805001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -5245,7 +5246,7 @@
         <v>1.1875590318168599E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>2.5</v>
       </c>
@@ -5259,7 +5260,7 @@
         <v>6.0895753102953101E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1.25</v>
       </c>
@@ -5273,7 +5274,7 @@
         <v>2.3424034634707399E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.5</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>1.7529444731915599E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.25</v>
       </c>
@@ -5301,7 +5302,7 @@
         <v>1.1746152024422799E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -5309,7 +5310,13 @@
         <v>5.8066263998595E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>0</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3.1864337257186101E-8</v>
+      </c>
       <c r="D45" s="3">
         <v>0.03</v>
       </c>
@@ -5317,20 +5324,20 @@
         <v>2.4189037357303999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B46" s="3">
-        <v>3.1864337257186101E-8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.4332167198351898E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="B47" s="3">
-        <v>5.4332167198351898E-2</v>
+        <v>2.7178103319881099E-2</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -5339,12 +5346,12 @@
         <v>1.2043009155909E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="B48" s="3">
-        <v>2.7178103319881099E-2</v>
+        <v>1.35948308616415E-2</v>
       </c>
       <c r="D48" s="3">
         <v>3</v>
@@ -5353,12 +5360,12 @@
         <v>2.3323107098538898E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="B49" s="3">
-        <v>1.35948308616415E-2</v>
+        <v>5.5769915861875203E-3</v>
       </c>
       <c r="D49" s="3">
         <v>2.25</v>
@@ -5367,12 +5374,12 @@
         <v>1.7319481863848199E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B50" s="3">
-        <v>5.5769915861875203E-3</v>
+        <v>2.7791983783853401E-3</v>
       </c>
       <c r="D50" s="3">
         <v>1.5</v>
@@ -5381,13 +5388,7 @@
         <v>1.1424531332304699E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="B51" s="3">
-        <v>2.7791983783853401E-3</v>
-      </c>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>0.75</v>
       </c>
@@ -5395,7 +5396,7 @@
         <v>5.7453451793425502E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>0.3</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>2.3129403608218701E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>0.22500000000000001</v>
       </c>
@@ -5411,7 +5412,7 @@
         <v>1.7276506897219101E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>0.15</v>
       </c>
@@ -5419,7 +5420,7 @@
         <v>1.14330235464813E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>5.6411325666351605E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3">
         <v>0.03</v>
       </c>
@@ -5445,23 +5446,23 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -5471,7 +5472,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>1.2070319267593794E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0.2</v>
       </c>
@@ -5513,7 +5514,7 @@
         <v>4.2538634171446895E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.1</v>
       </c>
@@ -5527,7 +5528,7 @@
         <v>3.162972752288635E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0.05</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>2.1127459554481174E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.02</v>
       </c>
@@ -5555,7 +5556,7 @@
         <v>1.0389125320464712E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.01</v>
       </c>
@@ -5569,7 +5570,7 @@
         <v>4.3821771791508824E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -5577,7 +5578,7 @@
         <v>3.1665835606058427E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>2.1013728086718798E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.2</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>1.1333765355281228E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.1</v>
       </c>
@@ -5619,7 +5620,7 @@
         <v>4.7043938693377101E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.05</v>
       </c>
@@ -5627,7 +5628,7 @@
         <v>1.861297241176005E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.02</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>1.6370632806467655E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.01</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>4.2647826421213552E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>0.15</v>
       </c>
@@ -5663,7 +5664,7 @@
         <v>3.1670810729219371E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -5677,7 +5678,7 @@
         <v>2.1222111755412874E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.2</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>1.0479754731568161E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.1</v>
       </c>
@@ -5705,7 +5706,7 @@
         <v>4.26480849828512E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.05</v>
       </c>
@@ -5719,7 +5720,7 @@
         <v>3.2551669960656672E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.02</v>
       </c>
@@ -5733,7 +5734,7 @@
         <v>2.018049544600025E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.01</v>
       </c>
@@ -5747,7 +5748,7 @@
         <v>1.0415890798778752E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23" s="3">
@@ -5757,7 +5758,7 @@
         <v>4.1407192173362854E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -5765,7 +5766,7 @@
         <v>-3.6498381523613325E-6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.2</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>-1.2018319071025982E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.1</v>
       </c>
@@ -5793,7 +5794,7 @@
         <v>4.1593994292792079E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.05</v>
       </c>
@@ -5807,7 +5808,7 @@
         <v>3.133313992201665E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.02</v>
       </c>
@@ -5821,7 +5822,7 @@
         <v>2.0962039123409099E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.01</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>1.0594552625645072E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>0.02</v>
       </c>
@@ -5843,7 +5844,7 @@
         <v>4.3472891166339202E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -5857,7 +5858,7 @@
         <v>3.2779065401833326E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.2</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>2.18916087536806E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.1</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>1.088278216805034E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.05</v>
       </c>
@@ -5899,7 +5900,7 @@
         <v>4.75265555253576E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.02</v>
       </c>
@@ -5907,7 +5908,7 @@
         <v>6.9169164124502185E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.01</v>
       </c>
@@ -5921,7 +5922,7 @@
         <v>1.153637968101061E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>0.2</v>
       </c>
@@ -5929,7 +5930,7 @@
         <v>4.4027318296023295E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -5943,7 +5944,7 @@
         <v>3.246625857224605E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.2</v>
       </c>
@@ -5957,7 +5958,7 @@
         <v>2.2272510374440374E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.1</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>1.1193687564502888E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.05</v>
       </c>
@@ -5985,7 +5986,7 @@
         <v>4.4220924453512625E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.02</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>3.3261030379310027E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.01</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>2.0653932380495599E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>1.0903183715062743E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>4.73379932062424E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.2</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>6.1843902909511422E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.1</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>7.0783848773195321E-6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.05</v>
       </c>
@@ -6071,7 +6072,7 @@
         <v>4.2353362827930799E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.02</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>3.1885899087440552E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.01</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>2.0878558222236976E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>0.05</v>
       </c>
@@ -6107,7 +6108,7 @@
         <v>1.0374839758639039E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>0.02</v>
       </c>
@@ -6115,7 +6116,7 @@
         <v>4.2634168312592779E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>3.1579480775921454E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>0.01</v>
       </c>
@@ -6131,7 +6132,7 @@
         <v>2.1192526118888848E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>1.0559252785874128E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3">
         <v>2E-3</v>
       </c>
@@ -6158,23 +6159,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -6184,7 +6185,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6199,7 +6200,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -6214,7 +6215,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -6228,7 +6229,7 @@
         <v>0.13818985128629399</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.5</v>
       </c>
@@ -6242,7 +6243,7 @@
         <v>0.102754804861826</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0.25</v>
       </c>
@@ -6256,7 +6257,7 @@
         <v>6.7783670963658393E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.1</v>
       </c>
@@ -6270,7 +6271,7 @@
         <v>3.34308004471707E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.05</v>
       </c>
@@ -6284,7 +6285,7 @@
         <v>1.3633692959463E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>0.22500000000000001</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>1.0132504337092001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -6306,7 +6307,7 @@
         <v>6.5028515266204604E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -6320,7 +6321,7 @@
         <v>3.4505632465408101E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>1.36527390867054E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.25</v>
       </c>
@@ -6342,7 +6343,7 @@
         <v>1.58964440115246E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.1</v>
       </c>
@@ -6356,7 +6357,7 @@
         <v>2.1375375978756401E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.05</v>
       </c>
@@ -6370,7 +6371,7 @@
         <v>0.13384788261335701</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>2.25</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>0.100507952728688</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>6.7290342228704503E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -6406,7 +6407,7 @@
         <v>3.2896053006335003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.5</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>1.33196802703879E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.25</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>1.01637080200731E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.1</v>
       </c>
@@ -6448,7 +6449,7 @@
         <v>6.6521808384534097E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.05</v>
       </c>
@@ -6462,7 +6463,7 @@
         <v>4.5637414943592797E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="D23" s="3">
         <v>0.03</v>
@@ -6471,7 +6472,7 @@
         <v>1.3927325248303799E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -6479,7 +6480,7 @@
         <v>-1.2663386971195799E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -6493,7 +6494,7 @@
         <v>4.28123777338393E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>0.138837000423011</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.25</v>
       </c>
@@ -6521,7 +6522,7 @@
         <v>0.102517626379035</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.1</v>
       </c>
@@ -6535,7 +6536,7 @@
         <v>6.8687608308106399E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.05</v>
       </c>
@@ -6549,7 +6550,7 @@
         <v>3.4556207862413701E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>0.3</v>
       </c>
@@ -6557,7 +6558,7 @@
         <v>1.45039119269114E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -6571,7 +6572,7 @@
         <v>1.0719779395533299E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>7.33165024058302E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.5</v>
       </c>
@@ -6599,7 +6600,7 @@
         <v>3.6578994830846999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.25</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>2.0356924242686202E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.1</v>
       </c>
@@ -6621,7 +6622,7 @@
         <v>8.1455711908662107E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.05</v>
       </c>
@@ -6635,7 +6636,7 @@
         <v>2.2516002278781899E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>3</v>
       </c>
@@ -6643,7 +6644,7 @@
         <v>0.13360346050213101</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -6657,7 +6658,7 @@
         <v>9.7072767776773497E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -6671,7 +6672,7 @@
         <v>6.6007038926918907E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.5</v>
       </c>
@@ -6685,7 +6686,7 @@
         <v>3.36506139073166E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.25</v>
       </c>
@@ -6699,7 +6700,7 @@
         <v>1.2753111227748999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.1</v>
       </c>
@@ -6713,7 +6714,7 @@
         <v>9.5018764550432299E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.05</v>
       </c>
@@ -6727,7 +6728,7 @@
         <v>6.2681426754191902E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>3.1998083657678702E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -6749,7 +6750,7 @@
         <v>1.4019105627428401E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>9.0690193350447604E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.5</v>
       </c>
@@ -6771,7 +6772,7 @@
         <v>2.42690415307498E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.25</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>0.128086008073939</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.1</v>
       </c>
@@ -6799,7 +6800,7 @@
         <v>9.6425945024614199E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.05</v>
       </c>
@@ -6813,7 +6814,7 @@
         <v>6.4007701474507697E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>0.75</v>
       </c>
@@ -6821,7 +6822,7 @@
         <v>3.2121199883193501E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>0.3</v>
       </c>
@@ -6829,7 +6830,7 @@
         <v>1.2817509167651399E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>0.22500000000000001</v>
       </c>
@@ -6837,7 +6838,7 @@
         <v>9.4041854190439096E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>0.15</v>
       </c>
@@ -6845,7 +6846,7 @@
         <v>6.4273587463869403E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -6853,7 +6854,7 @@
         <v>3.1206473537971199E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3">
         <v>0.03</v>
       </c>
@@ -6871,23 +6872,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -6897,7 +6898,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6912,7 +6913,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -6927,7 +6928,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>20</v>
       </c>
@@ -6941,7 +6942,7 @@
         <v>2.2013253020293901</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -6955,7 +6956,7 @@
         <v>1.6444868809736399</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -6969,7 +6970,7 @@
         <v>1.08503261554733</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -6983,7 +6984,7 @@
         <v>0.53929107107959695</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -6997,7 +6998,7 @@
         <v>0.21755429444692201</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>7.5</v>
       </c>
@@ -7005,7 +7006,7 @@
         <v>0.16306496855806901</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -7019,7 +7020,7 @@
         <v>0.108490815904353</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>20</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>5.4030345520610597E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -7047,7 +7048,7 @@
         <v>2.1504339881032099E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>5</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>0.17522156147662801</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>4.0823170709399703E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -7083,7 +7084,7 @@
         <v>2.2160136781367399</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>75</v>
       </c>
@@ -7091,7 +7092,7 @@
         <v>1.64219734059955</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -7105,7 +7106,7 @@
         <v>1.0844346669351099</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>20</v>
       </c>
@@ -7119,7 +7120,7 @@
         <v>0.54333574216292801</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -7133,7 +7134,7 @@
         <v>0.22019922066983999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -7147,7 +7148,7 @@
         <v>0.16381589413936801</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -7161,7 +7162,7 @@
         <v>0.107733304707158</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -7175,7 +7176,7 @@
         <v>5.4936776229887803E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23" s="3">
@@ -7185,7 +7186,7 @@
         <v>2.16152892476782E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -7193,7 +7194,7 @@
         <v>-2.7204847698715602E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>-8.0667123790398605E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>10</v>
       </c>
@@ -7221,7 +7222,7 @@
         <v>2.1805991106418201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>5</v>
       </c>
@@ -7235,7 +7236,7 @@
         <v>1.6206479102398399</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>2</v>
       </c>
@@ -7249,7 +7250,7 @@
         <v>1.0884061911084499</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>0.55038967051908805</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>10</v>
       </c>
@@ -7271,7 +7272,7 @@
         <v>0.227605898181894</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -7285,7 +7286,7 @@
         <v>0.16766442959795799</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>20</v>
       </c>
@@ -7299,7 +7300,7 @@
         <v>0.11320993799824799</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>10</v>
       </c>
@@ -7313,7 +7314,7 @@
         <v>5.66237136634586E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -7327,7 +7328,7 @@
         <v>2.2444127943174099E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>0.10763147044444001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -7349,7 +7350,7 @@
         <v>4.4183897966724303E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>100</v>
       </c>
@@ -7357,7 +7358,7 @@
         <v>2.1925446061484601</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -7371,7 +7372,7 @@
         <v>1.603672835354</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>20</v>
       </c>
@@ -7385,7 +7386,7 @@
         <v>1.07803233995139</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>10</v>
       </c>
@@ -7399,7 +7400,7 @@
         <v>0.55762879517974795</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>5</v>
       </c>
@@ -7413,7 +7414,7 @@
         <v>0.20868548375503601</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -7427,7 +7428,7 @@
         <v>0.16057519620043001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -7441,7 +7442,7 @@
         <v>0.104904593678824</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3">
         <v>2.5</v>
       </c>
@@ -7449,7 +7450,7 @@
         <v>5.3671282435519399E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -7463,7 +7464,7 @@
         <v>2.1801315922081701E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>20</v>
       </c>
@@ -7471,7 +7472,7 @@
         <v>0.79724572218468104</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>10</v>
       </c>
@@ -7485,7 +7486,7 @@
         <v>3.5919350104891101E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>5</v>
       </c>
@@ -7499,7 +7500,7 @@
         <v>2.1332920777654598</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>2</v>
       </c>
@@ -7513,7 +7514,7 @@
         <v>1.5933074754469401</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -7527,7 +7528,7 @@
         <v>1.0613012302124001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>25</v>
       </c>
@@ -7535,7 +7536,7 @@
         <v>0.529239846247746</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>10</v>
       </c>
@@ -7543,7 +7544,7 @@
         <v>0.212095396789548</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>7.5</v>
       </c>
@@ -7551,7 +7552,7 @@
         <v>0.157816664094131</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>5</v>
       </c>
@@ -7559,7 +7560,7 @@
         <v>0.105402891364538</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3">
         <v>2.5</v>
       </c>
@@ -7567,7 +7568,7 @@
         <v>5.2671179217050702E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3">
         <v>1</v>
       </c>
@@ -7585,23 +7586,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -7611,7 +7612,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -7641,7 +7642,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>5</v>
       </c>
@@ -7655,7 +7656,7 @@
         <v>0.23821785230281001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2.5</v>
       </c>
@@ -7669,7 +7670,7 @@
         <v>0.17865165316971801</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1.25</v>
       </c>
@@ -7683,7 +7684,7 @@
         <v>0.117130377092847</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.5</v>
       </c>
@@ -7697,7 +7698,7 @@
         <v>5.80176962871626E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.25</v>
       </c>
@@ -7711,7 +7712,7 @@
         <v>2.35319272943256E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>0.375</v>
       </c>
@@ -7719,7 +7720,7 @@
         <v>1.7095570651523801E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -7733,7 +7734,7 @@
         <v>1.1730052363736899E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -7747,7 +7748,7 @@
         <v>5.9723708702852504E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2.5</v>
       </c>
@@ -7761,7 +7762,7 @@
         <v>2.5321107528136501E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1.25</v>
       </c>
@@ -7769,7 +7770,7 @@
         <v>8.6754147260876602E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.5</v>
       </c>
@@ -7783,7 +7784,7 @@
         <v>7.2815826167292401E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.25</v>
       </c>
@@ -7797,7 +7798,7 @@
         <v>0.232881596855885</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>3.75</v>
       </c>
@@ -7805,7 +7806,7 @@
         <v>0.17342126424961199</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -7819,7 +7820,7 @@
         <v>0.115354540755852</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>5</v>
       </c>
@@ -7833,7 +7834,7 @@
         <v>5.6671144094400598E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2.5</v>
       </c>
@@ -7847,7 +7848,7 @@
         <v>2.4734051118019601E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1.25</v>
       </c>
@@ -7861,7 +7862,7 @@
         <v>1.7233497311804801E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.5</v>
       </c>
@@ -7875,7 +7876,7 @@
         <v>1.1447807514407099E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.25</v>
       </c>
@@ -7889,7 +7890,7 @@
         <v>5.8592283971013303E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23" s="3">
@@ -7899,7 +7900,7 @@
         <v>2.2030324759200999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -7907,7 +7908,7 @@
         <v>-3.85288912335115E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -7921,7 +7922,7 @@
         <v>-1.3855696584575E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>2.5</v>
       </c>
@@ -7935,7 +7936,7 @@
         <v>0.23631177432230399</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1.25</v>
       </c>
@@ -7949,7 +7950,7 @@
         <v>0.176419800630463</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.5</v>
       </c>
@@ -7963,7 +7964,7 @@
         <v>0.11729574141115599</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.25</v>
       </c>
@@ -7977,7 +7978,7 @@
         <v>5.9723600785652697E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>0.5</v>
       </c>
@@ -7985,7 +7986,7 @@
         <v>2.4742345422844599E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -7999,7 +8000,7 @@
         <v>1.8102053035583598E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -8013,7 +8014,7 @@
         <v>1.22173125172734E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>2.5</v>
       </c>
@@ -8027,7 +8028,7 @@
         <v>6.8333881198899904E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1.25</v>
       </c>
@@ -8041,7 +8042,7 @@
         <v>2.46304266254711E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.5</v>
       </c>
@@ -8049,7 +8050,7 @@
         <v>4.7730275004988797E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.25</v>
       </c>
@@ -8063,7 +8064,7 @@
         <v>5.2926979065077604E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>5</v>
       </c>
@@ -8071,7 +8072,7 @@
         <v>0.23170005562752999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -8085,7 +8086,7 @@
         <v>0.16775395454405101</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -8099,7 +8100,7 @@
         <v>0.11357300902041199</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>2.5</v>
       </c>
@@ -8113,7 +8114,7 @@
         <v>5.7837212309574899E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1.25</v>
       </c>
@@ -8127,7 +8128,7 @@
         <v>2.20107641005137E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.5</v>
       </c>
@@ -8141,7 +8142,7 @@
         <v>1.6673229850795699E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.25</v>
       </c>
@@ -8155,7 +8156,7 @@
         <v>1.10147776302382E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3">
         <v>0.125</v>
       </c>
@@ -8163,7 +8164,7 @@
         <v>5.5070700223428396E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -8177,7 +8178,7 @@
         <v>2.5582004633981901E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -8185,7 +8186,7 @@
         <v>0.45422665091065501</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>2.5</v>
       </c>
@@ -8199,7 +8200,7 @@
         <v>3.2710745388418901E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1.25</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>0.22124150718261801</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.5</v>
       </c>
@@ -8227,7 +8228,7 @@
         <v>0.166690211892183</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.25</v>
       </c>
@@ -8241,7 +8242,7 @@
         <v>0.11063685050746699</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>1.25</v>
       </c>
@@ -8249,7 +8250,7 @@
         <v>5.4968225045069298E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>0.5</v>
       </c>
@@ -8257,7 +8258,7 @@
         <v>2.2332792178766402E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>0.375</v>
       </c>
@@ -8265,7 +8266,7 @@
         <v>1.6439984398226502E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>0.25</v>
       </c>
@@ -8273,7 +8274,7 @@
         <v>1.14445127857669E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3">
         <v>0.125</v>
       </c>
@@ -8281,7 +8282,7 @@
         <v>5.7649366111315803E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3">
         <v>0.05</v>
       </c>
@@ -8299,23 +8300,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -8325,7 +8326,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8340,7 +8341,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -8355,7 +8356,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>5</v>
       </c>
@@ -8369,7 +8370,7 @@
         <v>1.3502552867984901</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2.5</v>
       </c>
@@ -8383,7 +8384,7 @@
         <v>1.00422182733036</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1.25</v>
       </c>
@@ -8397,7 +8398,7 @@
         <v>0.65787321341649596</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.5</v>
       </c>
@@ -8411,7 +8412,7 @@
         <v>0.32392500106981198</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.25</v>
       </c>
@@ -8425,7 +8426,7 @@
         <v>0.129410400107378</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>0.75</v>
       </c>
@@ -8433,7 +8434,7 @@
         <v>9.7025748926245298E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -8447,7 +8448,7 @@
         <v>6.5711181751586606E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -8461,7 +8462,7 @@
         <v>3.2403625294626703E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2.5</v>
       </c>
@@ -8475,7 +8476,7 @@
         <v>1.3047369331401E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1.25</v>
       </c>
@@ -8483,7 +8484,7 @@
         <v>0.28822168065162701</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.5</v>
       </c>
@@ -8497,7 +8498,7 @@
         <v>3.1853484606796301E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.25</v>
       </c>
@@ -8511,7 +8512,7 @@
         <v>1.3447445939454501</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>7.5</v>
       </c>
@@ -8519,7 +8520,7 @@
         <v>0.99026720189239403</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -8533,7 +8534,7 @@
         <v>0.66895728803889998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>5</v>
       </c>
@@ -8547,7 +8548,7 @@
         <v>0.32872608344202597</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2.5</v>
       </c>
@@ -8561,7 +8562,7 @@
         <v>0.13250396148496199</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1.25</v>
       </c>
@@ -8575,7 +8576,7 @@
         <v>0.100081182598504</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.5</v>
       </c>
@@ -8589,7 +8590,7 @@
         <v>6.5744808193626603E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.25</v>
       </c>
@@ -8603,7 +8604,7 @@
         <v>3.3430211559730999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23" s="3">
@@ -8613,7 +8614,7 @@
         <v>1.32930741276728E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -8621,7 +8622,7 @@
         <v>-1.3646990413833501E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -8635,7 +8636,7 @@
         <v>-7.3541994831583803E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>2.5</v>
       </c>
@@ -8649,7 +8650,7 @@
         <v>1.3460448518124599</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1.25</v>
       </c>
@@ -8663,7 +8664,7 @@
         <v>0.999907258447846</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.5</v>
       </c>
@@ -8677,7 +8678,7 @@
         <v>0.67183858074013703</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.25</v>
       </c>
@@ -8691,7 +8692,7 @@
         <v>0.33886560794604398</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>1</v>
       </c>
@@ -8699,7 +8700,7 @@
         <v>0.139580706021357</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -8713,7 +8714,7 @@
         <v>0.102010351291178</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -8727,7 +8728,7 @@
         <v>6.9246402455726302E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>2.5</v>
       </c>
@@ -8741,7 +8742,7 @@
         <v>3.4435480874954599E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1.25</v>
       </c>
@@ -8755,7 +8756,7 @@
         <v>1.3267492185761299E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.5</v>
       </c>
@@ -8763,7 +8764,7 @@
         <v>8.6644590144707406E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.25</v>
       </c>
@@ -8777,7 +8778,7 @@
         <v>3.5910663123226398E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>10</v>
       </c>
@@ -8785,7 +8786,7 @@
         <v>1.5991026737580201</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -8799,7 +8800,7 @@
         <v>1.1703184212114299</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -8813,7 +8814,7 @@
         <v>0.78692834667416101</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>2.5</v>
       </c>
@@ -8827,7 +8828,7 @@
         <v>0.40361886446948902</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1.25</v>
       </c>
@@ -8841,7 +8842,7 @@
         <v>0.15526884569184299</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.5</v>
       </c>
@@ -8855,7 +8856,7 @@
         <v>0.115101147972129</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.25</v>
       </c>
@@ -8869,7 +8870,7 @@
         <v>7.5296813715877903E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3">
         <v>0.25</v>
       </c>
@@ -8877,7 +8878,7 @@
         <v>3.8107133251064601E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -8891,7 +8892,7 @@
         <v>1.53482502303381E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -8899,7 +8900,7 @@
         <v>1.15863692195408</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>2.5</v>
       </c>
@@ -8913,7 +8914,7 @@
         <v>3.9582201005572502E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1.25</v>
       </c>
@@ -8927,7 +8928,7 @@
         <v>1.5763993883346099</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.5</v>
       </c>
@@ -8941,7 +8942,7 @@
         <v>1.18014247102067</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.25</v>
       </c>
@@ -8955,7 +8956,7 @@
         <v>0.76885142683161001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>2.5</v>
       </c>
@@ -8963,7 +8964,7 @@
         <v>0.38358370380032403</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>1</v>
       </c>
@@ -8971,7 +8972,7 @@
         <v>0.15416909280278901</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>0.75</v>
       </c>
@@ -8979,7 +8980,7 @@
         <v>0.11510432657608501</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>0.5</v>
       </c>
@@ -8987,7 +8988,7 @@
         <v>7.7302455001851997E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3">
         <v>0.25</v>
       </c>
@@ -8995,7 +8996,7 @@
         <v>3.8430355391734797E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3">
         <v>0.1</v>
       </c>
@@ -9013,23 +9014,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -9039,7 +9040,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -9054,7 +9055,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -9069,7 +9070,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>10</v>
       </c>
@@ -9083,7 +9084,7 @@
         <v>0.296327687240933</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -9097,7 +9098,7 @@
         <v>0.22362231546723901</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2.5</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>0.147937258582719</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>7.41155744141479E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.5</v>
       </c>
@@ -9139,7 +9140,7 @@
         <v>3.0201968835870199E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>0.75</v>
       </c>
@@ -9147,7 +9148,7 @@
         <v>2.22300697263067E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -9161,7 +9162,7 @@
         <v>1.51538617565484E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -9175,7 +9176,7 @@
         <v>7.8008553455048103E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -9189,7 +9190,7 @@
         <v>3.2763401775415201E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2.5</v>
       </c>
@@ -9197,7 +9198,7 @@
         <v>0.13407656305559601</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -9211,7 +9212,7 @@
         <v>2.1560647845006101E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.5</v>
       </c>
@@ -9225,7 +9226,7 @@
         <v>0.31077646855038898</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>7.5</v>
       </c>
@@ -9233,7 +9234,7 @@
         <v>0.233207247534236</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>0.155175966872836</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>10</v>
       </c>
@@ -9261,7 +9262,7 @@
         <v>7.8271816138631101E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>5</v>
       </c>
@@ -9275,7 +9276,7 @@
         <v>3.1781967717016801E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2.5</v>
       </c>
@@ -9289,7 +9290,7 @@
         <v>2.4055803339851502E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -9303,7 +9304,7 @@
         <v>1.58995642426123E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.5</v>
       </c>
@@ -9317,7 +9318,7 @@
         <v>8.3473364033113794E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23" s="3">
@@ -9327,7 +9328,7 @@
         <v>3.5045891408056798E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -9335,7 +9336,7 @@
         <v>-1.4162974750790801E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>10</v>
       </c>
@@ -9349,7 +9350,7 @@
         <v>-1.1568657270816501E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -9363,7 +9364,7 @@
         <v>0.29407126110080001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>2.5</v>
       </c>
@@ -9377,7 +9378,7 @@
         <v>0.222912013894113</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -9391,7 +9392,7 @@
         <v>0.14959878146644201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.5</v>
       </c>
@@ -9405,7 +9406,7 @@
         <v>7.5891239563172702E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>1</v>
       </c>
@@ -9413,7 +9414,7 @@
         <v>3.1831645075172797E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -9427,7 +9428,7 @@
         <v>2.3302368915947301E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>10</v>
       </c>
@@ -9441,7 +9442,7 @@
         <v>1.59059546220039E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>5</v>
       </c>
@@ -9455,7 +9456,7 @@
         <v>8.0878661101451595E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>2.5</v>
       </c>
@@ -9469,7 +9470,7 @@
         <v>3.3568997206244598E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -9477,7 +9478,7 @@
         <v>4.5233637151114399E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.5</v>
       </c>
@@ -9491,7 +9492,7 @@
         <v>1.4608062670875001E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>10</v>
       </c>
@@ -9499,7 +9500,7 @@
         <v>0.30607976124417102</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -9513,7 +9514,7 @@
         <v>0.226240938024102</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>10</v>
       </c>
@@ -9527,7 +9528,7 @@
         <v>0.15219745438393401</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -9541,7 +9542,7 @@
         <v>7.9390387329113202E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>2.5</v>
       </c>
@@ -9555,7 +9556,7 @@
         <v>3.1090252744546101E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -9569,7 +9570,7 @@
         <v>2.2873882226948999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.5</v>
       </c>
@@ -9583,7 +9584,7 @@
         <v>1.5135642756464699E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3">
         <v>0.25</v>
       </c>
@@ -9591,7 +9592,7 @@
         <v>7.9441054597880097E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -9605,7 +9606,7 @@
         <v>3.3533094983238601E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>10</v>
       </c>
@@ -9613,7 +9614,7 @@
         <v>0.48843536869058202</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>5</v>
       </c>
@@ -9627,7 +9628,7 @@
         <v>1.4854860705536201E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>2.5</v>
       </c>
@@ -9641,7 +9642,7 @@
         <v>0.29355194115813998</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -9655,7 +9656,7 @@
         <v>0.22499204675173901</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.5</v>
       </c>
@@ -9669,7 +9670,7 @@
         <v>0.14750433529894499</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>2.5</v>
       </c>
@@ -9677,7 +9678,7 @@
         <v>7.4085769291215395E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>1</v>
       </c>
@@ -9685,7 +9686,7 @@
         <v>3.0173944804515799E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>0.75</v>
       </c>
@@ -9693,7 +9694,7 @@
         <v>2.2650392146389999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>0.5</v>
       </c>
@@ -9701,7 +9702,7 @@
         <v>1.53267421868319E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3">
         <v>0.25</v>
       </c>
@@ -9709,7 +9710,7 @@
         <v>7.67304972609448E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3">
         <v>0.1</v>
       </c>
@@ -9727,23 +9728,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -9753,7 +9754,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -9768,7 +9769,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -9783,7 +9784,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0.2</v>
       </c>
@@ -9797,7 +9798,7 @@
         <v>0.20374799343578201</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.1</v>
       </c>
@@ -9811,7 +9812,7 @@
         <v>0.151106664907459</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0.05</v>
       </c>
@@ -9825,7 +9826,7 @@
         <v>0.100008957290043</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.02</v>
       </c>
@@ -9839,7 +9840,7 @@
         <v>4.9218191466497599E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.01</v>
       </c>
@@ -9853,7 +9854,7 @@
         <v>1.9741600859900701E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -9861,7 +9862,7 @@
         <v>1.4887182068053E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -9875,7 +9876,7 @@
         <v>9.8451955495557596E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.2</v>
       </c>
@@ -9889,7 +9890,7 @@
         <v>4.9095662572407398E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.1</v>
       </c>
@@ -9903,7 +9904,7 @@
         <v>1.96752288130401E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.05</v>
       </c>
@@ -9911,7 +9912,7 @@
         <v>1.29427328035634E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.02</v>
       </c>
@@ -9925,7 +9926,7 @@
         <v>4.2093804796090601E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.01</v>
       </c>
@@ -9939,7 +9940,7 @@
         <v>0.21591578423514099</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>0.75</v>
       </c>
@@ -9947,7 +9948,7 @@
         <v>0.15996767612072099</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -9961,7 +9962,7 @@
         <v>0.104949789238452</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.2</v>
       </c>
@@ -9975,7 +9976,7 @@
         <v>5.2318650330581702E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.1</v>
       </c>
@@ -9989,7 +9990,7 @@
         <v>2.07042438353871E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.05</v>
       </c>
@@ -10003,7 +10004,7 @@
         <v>1.5834448101108001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.02</v>
       </c>
@@ -10017,7 +10018,7 @@
         <v>1.04535051520673E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.01</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v>5.2582542522369401E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23" s="3">
@@ -10041,7 +10042,7 @@
         <v>2.1398197678955898E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -10049,7 +10050,7 @@
         <v>-1.9827951689648001E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.2</v>
       </c>
@@ -10063,7 +10064,7 @@
         <v>5.3650848904812804E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.1</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>0.20254213372117799</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.05</v>
       </c>
@@ -10091,7 +10092,7 @@
         <v>0.151236759240332</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.02</v>
       </c>
@@ -10105,7 +10106,7 @@
         <v>0.100837384841892</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.01</v>
       </c>
@@ -10119,7 +10120,7 @@
         <v>5.1140252558555602E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>0.1</v>
       </c>
@@ -10127,7 +10128,7 @@
         <v>2.0869108494202E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -10141,7 +10142,7 @@
         <v>1.5468583921577199E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.2</v>
       </c>
@@ -10155,7 +10156,7 @@
         <v>1.03628510273418E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.1</v>
       </c>
@@ -10169,7 +10170,7 @@
         <v>5.1339782369617297E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.05</v>
       </c>
@@ -10183,7 +10184,7 @@
         <v>2.10913787737843E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.02</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>4.8488278278988597E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.01</v>
       </c>
@@ -10205,7 +10206,7 @@
         <v>1.7556881406048001E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>1</v>
       </c>
@@ -10213,7 +10214,7 @@
         <v>0.207962684324282</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -10227,7 +10228,7 @@
         <v>0.15266634631086101</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.2</v>
       </c>
@@ -10241,7 +10242,7 @@
         <v>0.10338270280975299</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.1</v>
       </c>
@@ -10255,7 +10256,7 @@
         <v>5.2164017383924101E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.05</v>
       </c>
@@ -10269,7 +10270,7 @@
         <v>2.0183748490800402E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.02</v>
       </c>
@@ -10283,7 +10284,7 @@
         <v>1.50787934325736E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.01</v>
       </c>
@@ -10297,7 +10298,7 @@
         <v>9.8573292758368392E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10305,7 +10306,7 @@
         <v>5.0957267723917097E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -10319,7 +10320,7 @@
         <v>1.98550204271298E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.2</v>
       </c>
@@ -10327,7 +10328,7 @@
         <v>8.3706295337932904E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.1</v>
       </c>
@@ -10341,7 +10342,7 @@
         <v>1.98159446262857E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.05</v>
       </c>
@@ -10355,7 +10356,7 @@
         <v>0.20156869736385999</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.02</v>
       </c>
@@ -10369,7 +10370,7 @@
         <v>0.150866042523296</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.01</v>
       </c>
@@ -10383,7 +10384,7 @@
         <v>9.8882774345731006E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>0.25</v>
       </c>
@@ -10391,7 +10392,7 @@
         <v>4.9485913108420397E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>0.1</v>
       </c>
@@ -10399,7 +10400,7 @@
         <v>1.97333734658393E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -10407,7 +10408,7 @@
         <v>1.48796314543232E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>0.05</v>
       </c>
@@ -10415,7 +10416,7 @@
         <v>9.7317199163214005E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10423,7 +10424,7 @@
         <v>4.8803107630280397E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3">
         <v>0.01</v>
       </c>
@@ -10441,23 +10442,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -10467,7 +10468,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -10482,7 +10483,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -10497,7 +10498,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10511,7 +10512,7 @@
         <v>0.15933545494225701</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.5</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>0.11658193570686599</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0.25</v>
       </c>
@@ -10539,7 +10540,7 @@
         <v>7.7587085254834307E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.1</v>
       </c>
@@ -10553,7 +10554,7 @@
         <v>3.8477555489665298E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.05</v>
       </c>
@@ -10567,7 +10568,7 @@
         <v>1.5628430645495399E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -10575,7 +10576,7 @@
         <v>1.1763300824239299E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -10589,7 +10590,7 @@
         <v>7.8198782281776996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -10603,7 +10604,7 @@
         <v>4.3339469926976402E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
@@ -10617,7 +10618,7 @@
         <v>1.94299357097748E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.25</v>
       </c>
@@ -10625,7 +10626,7 @@
         <v>4.7484537713013197E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.1</v>
       </c>
@@ -10639,7 +10640,7 @@
         <v>5.3047836901041502E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.05</v>
       </c>
@@ -10653,7 +10654,7 @@
         <v>0.167459564345387</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>0.75</v>
       </c>
@@ -10661,7 +10662,7 @@
         <v>0.124220365860609</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -10675,7 +10676,7 @@
         <v>8.2432025557583596E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -10689,7 +10690,7 @@
         <v>4.09418248807819E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.5</v>
       </c>
@@ -10703,7 +10704,7 @@
         <v>1.7056443806200802E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.25</v>
       </c>
@@ -10717,7 +10718,7 @@
         <v>1.3223204763298701E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.1</v>
       </c>
@@ -10731,7 +10732,7 @@
         <v>8.3247809443667102E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.05</v>
       </c>
@@ -10745,7 +10746,7 @@
         <v>4.4603994830868998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23" s="3">
@@ -10755,7 +10756,7 @@
         <v>1.75412342781141E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -10763,7 +10764,7 @@
         <v>-6.1651622221345099E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -10777,7 +10778,7 @@
         <v>8.7977969548660095E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -10791,7 +10792,7 @@
         <v>0.155090913443792</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.25</v>
       </c>
@@ -10805,7 +10806,7 @@
         <v>0.117858749028087</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.1</v>
       </c>
@@ -10819,7 +10820,7 @@
         <v>7.6590656603909693E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.05</v>
       </c>
@@ -10833,7 +10834,7 @@
         <v>3.9111337724119601E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>0.1</v>
       </c>
@@ -10841,7 +10842,7 @@
         <v>1.58712670561824E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -10855,7 +10856,7 @@
         <v>1.14830395741299E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -10869,7 +10870,7 @@
         <v>7.9295459003594498E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.5</v>
       </c>
@@ -10883,7 +10884,7 @@
         <v>3.9522265737161003E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.25</v>
       </c>
@@ -10897,7 +10898,7 @@
         <v>1.48675119771557E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.1</v>
       </c>
@@ -10905,7 +10906,7 @@
         <v>1.9234845061023801E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.05</v>
       </c>
@@ -10919,7 +10920,7 @@
         <v>5.1992654695797098E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>1</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>0.15859823649053301</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -10941,7 +10942,7 @@
         <v>0.116245874850866</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -10955,7 +10956,7 @@
         <v>7.8701524833817094E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.5</v>
       </c>
@@ -10969,7 +10970,7 @@
         <v>3.9818561983285997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.25</v>
       </c>
@@ -10983,7 +10984,7 @@
         <v>1.5370480754299899E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.1</v>
       </c>
@@ -10997,7 +10998,7 @@
         <v>1.13291923166203E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.05</v>
       </c>
@@ -11011,7 +11012,7 @@
         <v>7.3402397395004601E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -11019,7 +11020,7 @@
         <v>3.8712668031478099E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -11033,7 +11034,7 @@
         <v>1.3745109385450199E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -11041,7 +11042,7 @@
         <v>0.33650859961943802</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.5</v>
       </c>
@@ -11055,7 +11056,7 @@
         <v>4.72543319068088E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.25</v>
       </c>
@@ -11069,7 +11070,7 @@
         <v>0.153967093717013</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.1</v>
       </c>
@@ -11083,7 +11084,7 @@
         <v>0.115355154346516</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.05</v>
       </c>
@@ -11097,7 +11098,7 @@
         <v>7.5449067039950801E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>0.25</v>
       </c>
@@ -11105,7 +11106,7 @@
         <v>3.7517992359739301E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>0.1</v>
       </c>
@@ -11113,7 +11114,7 @@
         <v>1.5015880112925701E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -11121,7 +11122,7 @@
         <v>1.12348410336432E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>0.05</v>
       </c>
@@ -11129,7 +11130,7 @@
         <v>7.4060081586900901E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -11137,7 +11138,7 @@
         <v>3.9833860585277601E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3">
         <v>0.01</v>
       </c>
@@ -11155,23 +11156,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -11181,7 +11182,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -11196,7 +11197,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -11211,7 +11212,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0.2</v>
       </c>
@@ -11225,7 +11226,7 @@
         <v>4.1091088167469099E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.1</v>
       </c>
@@ -11239,7 +11240,7 @@
         <v>3.07422526582177E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0.05</v>
       </c>
@@ -11253,7 +11254,7 @@
         <v>2.0742347896048102E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.02</v>
       </c>
@@ -11267,7 +11268,7 @@
         <v>1.0394737552091899E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.01</v>
       </c>
@@ -11281,7 +11282,7 @@
         <v>4.5493410379356999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>3.7499999999999999E-2</v>
       </c>
@@ -11289,7 +11290,7 @@
         <v>3.2883957567509101E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -11303,7 +11304,7 @@
         <v>2.33320893331729E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.2</v>
       </c>
@@ -11317,7 +11318,7 @@
         <v>1.32582249615348E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.1</v>
       </c>
@@ -11331,7 +11332,7 @@
         <v>6.1864888783525601E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.05</v>
       </c>
@@ -11339,7 +11340,7 @@
         <v>6.9353164576676602E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.02</v>
       </c>
@@ -11353,7 +11354,7 @@
         <v>6.0229216432227502E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.01</v>
       </c>
@@ -11367,7 +11368,7 @@
         <v>4.1470911979924197E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>0.375</v>
       </c>
@@ -11375,7 +11376,7 @@
         <v>3.1195015530049199E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -11389,7 +11390,7 @@
         <v>2.1078867591979002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.2</v>
       </c>
@@ -11403,7 +11404,7 @@
         <v>1.07662108468003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.1</v>
       </c>
@@ -11417,7 +11418,7 @@
         <v>4.5033084274071298E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.05</v>
       </c>
@@ -11431,7 +11432,7 @@
         <v>3.37320694462853E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.02</v>
       </c>
@@ -11445,7 +11446,7 @@
         <v>2.31639552355325E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.01</v>
       </c>
@@ -11459,7 +11460,7 @@
         <v>1.2404613452702601E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="D23" s="3">
@@ -11469,7 +11470,7 @@
         <v>5.5890462193109705E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -11477,7 +11478,7 @@
         <v>-3.1311319227624897E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.2</v>
       </c>
@@ -11491,7 +11492,7 @@
         <v>-2.57998613777871E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.1</v>
       </c>
@@ -11505,7 +11506,7 @@
         <v>4.2549753064967798E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.05</v>
       </c>
@@ -11519,7 +11520,7 @@
         <v>3.2219742477481599E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.02</v>
       </c>
@@ -11533,7 +11534,7 @@
         <v>2.1480052649255E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.01</v>
       </c>
@@ -11547,7 +11548,7 @@
         <v>1.0992182539673601E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>0.05</v>
       </c>
@@ -11555,7 +11556,7 @@
         <v>4.7843116730859302E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -11569,7 +11570,7 @@
         <v>3.47813491987648E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.2</v>
       </c>
@@ -11583,7 +11584,7 @@
         <v>2.4416618327452598E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.1</v>
       </c>
@@ -11597,7 +11598,7 @@
         <v>1.31501170526556E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.05</v>
       </c>
@@ -11611,7 +11612,7 @@
         <v>6.2663035866180499E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.02</v>
       </c>
@@ -11619,7 +11620,7 @@
         <v>2.27720099548808E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.01</v>
       </c>
@@ -11633,7 +11634,7 @@
         <v>4.8302207431998999E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
         <v>0.5</v>
       </c>
@@ -11641,7 +11642,7 @@
         <v>4.23403972926251E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -11655,7 +11656,7 @@
         <v>3.1784740539447902E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.2</v>
       </c>
@@ -11669,7 +11670,7 @@
         <v>2.17203844168594E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.1</v>
       </c>
@@ -11683,7 +11684,7 @@
         <v>1.11873238939679E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.05</v>
       </c>
@@ -11697,7 +11698,7 @@
         <v>4.4216573924794897E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.02</v>
       </c>
@@ -11711,7 +11712,7 @@
         <v>3.4248765688065E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.01</v>
       </c>
@@ -11725,7 +11726,7 @@
         <v>2.2247778634144201E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -11733,7 +11734,7 @@
         <v>1.2039912112199701E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -11747,7 +11748,7 @@
         <v>5.86202583671186E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.2</v>
       </c>
@@ -11755,7 +11756,7 @@
         <v>2.27414406391441E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.1</v>
       </c>
@@ -11769,7 +11770,7 @@
         <v>4.4032055487823701E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.05</v>
       </c>
@@ -11783,7 +11784,7 @@
         <v>4.0240593324907301E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.02</v>
       </c>
@@ -11797,7 +11798,7 @@
         <v>3.0825196052426399E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.01</v>
       </c>
@@ -11811,7 +11812,7 @@
         <v>2.03644075746151E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3">
         <v>0.125</v>
       </c>
@@ -11819,7 +11820,7 @@
         <v>1.03681898420451E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3">
         <v>0.05</v>
       </c>
@@ -11827,7 +11828,7 @@
         <v>4.40690095331205E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3">
         <v>3.7499999999999999E-2</v>
       </c>
@@ -11835,7 +11836,7 @@
         <v>3.23234482597056E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -11843,7 +11844,7 @@
         <v>2.2342244409101E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -11851,7 +11852,7 @@
         <v>1.2077265760565899E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3">
         <v>5.0000000000000001E-3</v>
       </c>

--- a/data/210429_MESA totals calibration comparison_for Jeff and Emil.xlsx
+++ b/data/210429_MESA totals calibration comparison_for Jeff and Emil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilhafeez/Google Drive/Career/Columbia/MESA/mesa_metals_calibration/mesa_metals_calibration/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0652143-66AF-1742-96C7-FC87B94D8A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D49B216-9EEC-804E-A332-08A65148F765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="17500" tabRatio="702" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Co" sheetId="1" r:id="rId1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1879,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4735,8 +4735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A37" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6162,8 +6162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="E16" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6876,7 +6876,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B51" sqref="B51:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7589,7 +7589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -11159,7 +11159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
